--- a/results/graphiques_crise.xlsx
+++ b/results/graphiques_crise.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugodemenez/Library/CloudStorage/OneDrive-Bibliothèquespartagées-JUNIAGrandeécoled'ingénieurs/STUDENT_EMERGING_MARKETS_MEMOIRE_2023 - General/Memoire_M2_2023/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjunia-my.sharepoint.com/personal/hugo_demenez_student_junia_com/Documents/MFE/Memoire_M2_2023/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2A302E-19AC-414C-894E-0DB6B5EB72C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -8082,7 +8082,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C220A9E5-82E3-BE4A-A909-C6F76D1E57BD}" type="CELLRANGE">
+                    <a:fld id="{3B0ECFEE-E84E-6E47-A6B3-FB51FB9A0134}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -8121,7 +8121,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B381B5B-295D-F640-91A3-AA0AF7FB2AC7}" type="CELLRANGE">
+                    <a:fld id="{8C12B16F-BCF3-474A-8A5A-E10907861B3D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -8160,7 +8160,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C456A3CA-5AC3-9248-881A-4E64A8200D48}" type="CELLRANGE">
+                    <a:fld id="{1C2886C2-A799-FD44-8BAC-E7E0EE2993A4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -8199,7 +8199,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0865BCFC-ABF5-484D-93B8-7E0E127A37AD}" type="CELLRANGE">
+                    <a:fld id="{8A8A1312-15C1-F44E-8475-33570B226269}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10226,7 +10226,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F438503-6301-9545-BFD0-2896A34A8DD4}" type="CELLRANGE">
+                    <a:fld id="{20685990-D026-BC40-8817-DCAAA766AE16}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10265,7 +10265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63993051-090F-D84D-8B43-04BE2BB8769E}" type="CELLRANGE">
+                    <a:fld id="{A80C6712-AC7A-F248-A7F0-218351607460}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10304,7 +10304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9DD6290-F30D-094D-9B89-BF649FF1D9E7}" type="CELLRANGE">
+                    <a:fld id="{E636F082-F785-2C4C-BAB3-7700EDE5B755}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -10343,7 +10343,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C76449C0-CC6A-3F49-958F-AA760470A4AB}" type="CELLRANGE">
+                    <a:fld id="{0D3FCA4F-90D9-0742-B3C4-F0B3EC82DA01}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -28243,7 +28243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605C774B-18B1-5440-B955-15DACAD5615E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E3" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D3" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AW43" sqref="AW43"/>
     </sheetView>
   </sheetViews>
@@ -28463,16 +28463,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19EA1EC6-74A8-4DAB-BE10-7580D4939D95}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
